--- a/ABET/DocumentTracker_Assessment.xlsx
+++ b/ABET/DocumentTracker_Assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.biaglow\OneDrive - West Point\Documents\001 ABET\Program Documents\program documents AY25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usarmywestpoint-my.sharepoint.com/personal/andrew_biaglow_westpoint_edu/Documents/Documents/GitHub/abiaglow.github.io/ABET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1276EA63-9834-4D71-AF1E-094EBE74D805}"/>
   <bookViews>
-    <workbookView xWindow="53652" yWindow="-672" windowWidth="17496" windowHeight="30216" xr2:uid="{188796DA-674F-42F3-8244-EB71C3832B77}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{188796DA-674F-42F3-8244-EB71C3832B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="58">
   <si>
     <t>ü</t>
   </si>
@@ -200,16 +200,28 @@
     <t xml:space="preserve">   - Program Exit</t>
   </si>
   <si>
-    <t>1/26</t>
-  </si>
-  <si>
-    <t>8/25</t>
-  </si>
-  <si>
-    <t>9/25</t>
-  </si>
-  <si>
     <t xml:space="preserve">   - Peers/CH459</t>
+  </si>
+  <si>
+    <t>10/25</t>
+  </si>
+  <si>
+    <t>4/26</t>
+  </si>
+  <si>
+    <t>5/26</t>
+  </si>
+  <si>
+    <t>8/26</t>
+  </si>
+  <si>
+    <t>1/27</t>
+  </si>
+  <si>
+    <t>9/26</t>
+  </si>
+  <si>
+    <t>12/25</t>
   </si>
 </sst>
 </file>
@@ -296,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -632,11 +644,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,22 +696,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -769,15 +786,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,6 +818,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,16 +1176,16 @@
     <row r="2" spans="3:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C3" s="13"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="79" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="81"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C4" s="14"/>
@@ -1176,270 +1202,276 @@
       <c r="H4" s="9">
         <v>2023</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="57">
         <v>2024</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="58">
         <v>2025</v>
       </c>
       <c r="K4" s="15">
         <v>2026</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="83"/>
-      <c r="P4" s="47"/>
-      <c r="R4" s="82" t="s">
+      <c r="O4" s="76"/>
+      <c r="P4" s="43"/>
+      <c r="R4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="83"/>
-      <c r="T4" s="47"/>
-      <c r="V4" s="59" t="s">
+      <c r="S4" s="76"/>
+      <c r="T4" s="43"/>
+      <c r="V4" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="60"/>
-      <c r="X4" s="47"/>
-      <c r="Z4" s="59" t="s">
+      <c r="W4" s="56"/>
+      <c r="X4" s="43"/>
+      <c r="Z4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="47"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="43"/>
     </row>
     <row r="5" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="63"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="17"/>
-      <c r="N5" s="46" t="s">
+      <c r="N5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="R5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="46" t="s">
+      <c r="V5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="46" t="s">
+      <c r="W5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="39" t="s">
+      <c r="X5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="46" t="s">
+      <c r="Z5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="46" t="s">
+      <c r="AA5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="39" t="s">
+      <c r="AB5" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="N6" s="48" t="s">
+      <c r="F6" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="48" t="s">
+      <c r="P6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="49" t="s">
+      <c r="S6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="V6" s="49" t="s">
+      <c r="T6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="49" t="s">
+      <c r="W6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="49" t="s">
+      <c r="X6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="49" t="s">
+      <c r="AA6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="51" t="s">
+      <c r="AB6" s="47" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="N7" s="41" t="s">
+      <c r="F7" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="48" t="s">
+      <c r="R7" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="48" t="s">
+      <c r="S7" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="V7" s="40" t="s">
+      <c r="T7" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="40" t="s">
+      <c r="W7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="43" t="s">
+      <c r="X7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Z7" s="40" t="s">
+      <c r="Z7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AA7" s="40" t="s">
+      <c r="AA7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="43" t="s">
+      <c r="AB7" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="N8" s="48" t="s">
+      <c r="F8" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="48" t="s">
+      <c r="O8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="40" t="s">
+      <c r="P8" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="43" t="s">
+      <c r="T8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="V8" s="48" t="s">
+      <c r="V8" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="48" t="s">
+      <c r="W8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="X8" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="40" t="s">
+      <c r="X8" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AA8" s="40" t="s">
+      <c r="AA8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AB8" s="43" t="s">
+      <c r="AB8" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3"/>
@@ -1455,52 +1487,54 @@
       <c r="H9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="N9" s="48" t="s">
+      <c r="I9" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="48" t="s">
+      <c r="O9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="41" t="s">
+      <c r="P9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="41" t="s">
+      <c r="S9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="44" t="s">
+      <c r="T9" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="48" t="s">
+      <c r="V9" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="W9" s="48" t="s">
+      <c r="W9" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="48" t="s">
+      <c r="X9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AA9" s="48" t="s">
+      <c r="AA9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="AB9" s="51" t="s">
+      <c r="AB9" s="47" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="6"/>
@@ -1519,44 +1553,44 @@
       <c r="I10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="N10" s="48" t="s">
+      <c r="J10" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="N10" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="41" t="s">
+      <c r="P10" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="41" t="s">
+      <c r="S10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="44" t="s">
+      <c r="T10" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="V10" s="48" t="s">
+      <c r="V10" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="W10" s="48" t="s">
+      <c r="W10" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="48" t="s">
+      <c r="X10" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AA10" s="48" t="s">
+      <c r="AA10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AB10" s="51" t="s">
+      <c r="AB10" s="47" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1564,176 +1598,182 @@
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="63"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="17"/>
-      <c r="N11" s="48" t="s">
+      <c r="N11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="48" t="s">
+      <c r="O11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="45"/>
-      <c r="Z11" s="48" t="s">
+      <c r="P11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="41"/>
+      <c r="Z11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AA11" s="48" t="s">
+      <c r="AA11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AB11" s="51" t="s">
+      <c r="AB11" s="47" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="45"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="45"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="45"/>
-      <c r="Z12" s="48" t="s">
+      <c r="F12" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="41"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="41"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="41"/>
+      <c r="Z12" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AA12" s="48" t="s">
+      <c r="AA12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AB12" s="51" t="s">
+      <c r="AB12" s="47" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="N13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="R13" s="48" t="s">
+      <c r="D13" s="66"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="R13" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="48" t="s">
+      <c r="S13" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="T13" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="48" t="s">
+      <c r="T13" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="48" t="s">
+      <c r="W13" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="X13" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="45"/>
+      <c r="X13" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="41"/>
     </row>
     <row r="14" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="N14" s="48" t="s">
+      <c r="J14" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="48" t="s">
+      <c r="O14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="48" t="s">
+      <c r="P14" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="48" t="s">
+      <c r="S14" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="T14" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14" s="48" t="s">
+      <c r="T14" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="48" t="s">
+      <c r="W14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="X14" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="45"/>
+      <c r="X14" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="41"/>
     </row>
     <row r="15" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
@@ -1752,44 +1792,44 @@
       <c r="I15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="N15" s="48" t="s">
+      <c r="J15" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="N15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="48" t="s">
+      <c r="O15" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="41" t="s">
+      <c r="P15" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="S15" s="41" t="s">
+      <c r="S15" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="44" t="s">
+      <c r="T15" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="V15" s="48" t="s">
+      <c r="V15" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="48" t="s">
+      <c r="W15" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="X15" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="48" t="s">
+      <c r="X15" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="AA15" s="48" t="s">
+      <c r="AA15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="51" t="s">
+      <c r="AB15" s="47" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1797,267 +1837,279 @@
       <c r="C16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="17"/>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="52" t="s">
+      <c r="O16" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="52" t="s">
+      <c r="P16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="52" t="s">
+      <c r="S16" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="V16" s="48" t="s">
+      <c r="T16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="W16" s="48" t="s">
+      <c r="W16" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="X16" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="48" t="s">
+      <c r="X16" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AA16" s="48" t="s">
+      <c r="AA16" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AB16" s="51" t="s">
+      <c r="AB16" s="47" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="V17" s="48" t="s">
+      <c r="F17" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="W17" s="48" t="s">
+      <c r="W17" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="X17" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="40" t="s">
+      <c r="X17" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="40" t="s">
+      <c r="AA17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AB17" s="43" t="s">
+      <c r="AB17" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="V18" s="52" t="s">
+      <c r="F18" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="W18" s="52" t="s">
+      <c r="W18" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="48" t="s">
+      <c r="X18" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AA18" s="48" t="s">
+      <c r="AA18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AB18" s="51" t="s">
+      <c r="AB18" s="47" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="73"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="17"/>
-      <c r="Z19" s="48" t="s">
+      <c r="F19" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z19" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AA19" s="48" t="s">
+      <c r="AA19" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AB19" s="51" t="s">
+      <c r="AB19" s="47" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="73"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="17"/>
-      <c r="Z20" s="40" t="s">
+      <c r="F20" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z20" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AA20" s="40" t="s">
+      <c r="AA20" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AB20" s="43" t="s">
+      <c r="AB20" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="73"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="17"/>
-      <c r="Z21" s="54" t="s">
+      <c r="F21" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z21" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AA21" s="54" t="s">
+      <c r="AA21" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AB21" s="43" t="s">
+      <c r="AB21" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="73"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="17"/>
+      <c r="F22" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="77" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C23" s="30" t="s">
-        <v>53</v>
+      <c r="C23" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="5" t="s">
@@ -2075,148 +2127,160 @@
       <c r="I23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="23"/>
+      <c r="J23" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="80" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="76"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="25"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="K25" s="25"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="81" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="26" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="33" t="s">
+      <c r="D26" s="69"/>
+      <c r="E26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="25"/>
+      <c r="F26" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="81" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="25"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="81" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="25"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="81" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" spans="3:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="35" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="27"/>
+      <c r="F29" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="82" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ABET/DocumentTracker_Assessment.xlsx
+++ b/ABET/DocumentTracker_Assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usarmywestpoint-my.sharepoint.com/personal/andrew_biaglow_westpoint_edu/Documents/Documents/GitHub/abiaglow.github.io/ABET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1276EA63-9834-4D71-AF1E-094EBE74D805}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1373674A-5452-4B78-B350-256C13C04817}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{188796DA-674F-42F3-8244-EB71C3832B77}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,18 +792,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,22 +823,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1161,7 +1164,7 @@
   <dimension ref="C2:AB29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="170" workbookViewId="0">
-      <selection activeCell="L30" sqref="B2:L30"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1236,12 +1239,12 @@
       <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="59"/>
       <c r="K5" s="17"/>
       <c r="N5" s="42" t="s">
@@ -1285,26 +1288,26 @@
       <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="67" t="s">
+      <c r="F6" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="67" t="s">
         <v>53</v>
       </c>
       <c r="N6" s="44" t="s">
@@ -1348,26 +1351,26 @@
       <c r="C7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="66"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="67" t="s">
+      <c r="F7" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="67" t="s">
         <v>55</v>
       </c>
       <c r="N7" s="37" t="s">
@@ -1411,26 +1414,26 @@
       <c r="C8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="67" t="s">
+      <c r="F8" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="67" t="s">
         <v>53</v>
       </c>
       <c r="N8" s="44" t="s">
@@ -1487,13 +1490,13 @@
       <c r="H9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="68" t="s">
         <v>54</v>
       </c>
       <c r="N9" s="44" t="s">
@@ -1598,12 +1601,12 @@
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="51"/>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
-      <c r="I11" s="66"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="59"/>
       <c r="K11" s="17"/>
       <c r="N11" s="44" t="s">
@@ -1636,26 +1639,26 @@
       <c r="C12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="66"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="67" t="s">
+      <c r="F12" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="77" t="s">
+      <c r="K12" s="67" t="s">
         <v>53</v>
       </c>
       <c r="N12" s="38"/>
@@ -1681,20 +1684,20 @@
       <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="66"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="67" t="s">
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="77" t="s">
+      <c r="K13" s="67" t="s">
         <v>51</v>
       </c>
       <c r="N13" s="41"/>
@@ -1725,7 +1728,7 @@
       <c r="C14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="66"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="54"/>
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
@@ -1738,7 +1741,7 @@
       <c r="J14" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="77" t="s">
+      <c r="K14" s="67" t="s">
         <v>52</v>
       </c>
       <c r="N14" s="44" t="s">
@@ -1837,7 +1840,7 @@
       <c r="C16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="66"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
@@ -1886,26 +1889,26 @@
       <c r="C17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="66"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="67" t="s">
+      <c r="F17" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="77" t="s">
+      <c r="K17" s="67" t="s">
         <v>56</v>
       </c>
       <c r="V17" s="44" t="s">
@@ -1931,26 +1934,26 @@
       <c r="C18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="66"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="67" t="s">
+      <c r="F18" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J18" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="77" t="s">
+      <c r="K18" s="67" t="s">
         <v>56</v>
       </c>
       <c r="V18" s="48" t="s">
@@ -1976,26 +1979,26 @@
       <c r="C19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="66"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="67" t="s">
+      <c r="F19" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J19" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="77" t="s">
+      <c r="K19" s="67" t="s">
         <v>57</v>
       </c>
       <c r="Z19" s="44" t="s">
@@ -2012,26 +2015,26 @@
       <c r="C20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="66"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="67" t="s">
+      <c r="F20" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K20" s="77" t="s">
+      <c r="K20" s="67" t="s">
         <v>53</v>
       </c>
       <c r="Z20" s="36" t="s">
@@ -2048,27 +2051,27 @@
       <c r="C21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="66"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="67" t="s">
+      <c r="F21" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="77" t="s">
-        <v>57</v>
+      <c r="K21" s="80" t="s">
+        <v>0</v>
       </c>
       <c r="Z21" s="50" t="s">
         <v>44</v>
@@ -2084,26 +2087,26 @@
       <c r="C22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="67" t="s">
+      <c r="F22" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="78" t="s">
         <v>0</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="77" t="s">
+      <c r="K22" s="67" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2130,7 +2133,7 @@
       <c r="J23" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="80" t="s">
+      <c r="K23" s="69" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2138,39 +2141,39 @@
       <c r="C24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="69"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="71"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="66"/>
       <c r="K24" s="22"/>
     </row>
     <row r="25" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="69"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="70" t="s">
+      <c r="F25" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="83" t="s">
         <v>0</v>
       </c>
       <c r="J25" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="K25" s="81" t="s">
+      <c r="K25" s="70" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2178,26 +2181,26 @@
       <c r="C26" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="69"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="70" t="s">
+      <c r="F26" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="83" t="s">
         <v>0</v>
       </c>
       <c r="J26" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="81" t="s">
+      <c r="K26" s="70" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2205,26 +2208,26 @@
       <c r="C27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="69"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="70" t="s">
+      <c r="F27" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="83" t="s">
         <v>0</v>
       </c>
       <c r="J27" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="K27" s="81" t="s">
+      <c r="K27" s="70" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2232,26 +2235,26 @@
       <c r="C28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="69"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="70" t="s">
+      <c r="F28" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="83" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="81" t="s">
+      <c r="K28" s="70" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2278,7 +2281,7 @@
       <c r="J29" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="82" t="s">
+      <c r="K29" s="71" t="s">
         <v>52</v>
       </c>
     </row>

--- a/ABET/DocumentTracker_Assessment.xlsx
+++ b/ABET/DocumentTracker_Assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usarmywestpoint-my.sharepoint.com/personal/andrew_biaglow_westpoint_edu/Documents/Documents/GitHub/abiaglow.github.io/ABET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1373674A-5452-4B78-B350-256C13C04817}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF76A67-B41C-4D4D-88DA-904CB49B0FE5}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{188796DA-674F-42F3-8244-EB71C3832B77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="57">
   <si>
     <t>ü</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>9/26</t>
-  </si>
-  <si>
-    <t>12/25</t>
   </si>
 </sst>
 </file>
@@ -808,6 +805,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,9 +828,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1164,7 +1161,7 @@
   <dimension ref="C2:AB29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="170" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1180,15 +1177,15 @@
     <row r="3" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C3" s="13"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C4" s="14"/>
@@ -1214,15 +1211,15 @@
       <c r="K4" s="15">
         <v>2026</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="76"/>
+      <c r="O4" s="77"/>
       <c r="P4" s="43"/>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="77"/>
       <c r="T4" s="43"/>
       <c r="V4" s="55" t="s">
         <v>45</v>
@@ -1239,12 +1236,12 @@
       <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="77"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
       <c r="J5" s="59"/>
       <c r="K5" s="17"/>
       <c r="N5" s="42" t="s">
@@ -1288,20 +1285,20 @@
       <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="77"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="78" t="s">
+      <c r="F6" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="53" t="s">
@@ -1351,20 +1348,20 @@
       <c r="C7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="77"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="78" t="s">
+      <c r="F7" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="53" t="s">
@@ -1414,20 +1411,20 @@
       <c r="C8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="77"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="78" t="s">
+      <c r="F8" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="53" t="s">
@@ -1490,7 +1487,7 @@
       <c r="H9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="64" t="s">
@@ -1601,12 +1598,12 @@
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="77"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="51"/>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
-      <c r="I11" s="77"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="59"/>
       <c r="K11" s="17"/>
       <c r="N11" s="44" t="s">
@@ -1639,20 +1636,20 @@
       <c r="C12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="77"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="78" t="s">
+      <c r="F12" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="53" t="s">
@@ -1684,14 +1681,14 @@
       <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="77"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="78" t="s">
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="53" t="s">
@@ -1728,7 +1725,7 @@
       <c r="C14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="77"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="54"/>
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
@@ -1840,7 +1837,7 @@
       <c r="C16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="77"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
@@ -1889,20 +1886,20 @@
       <c r="C17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="77"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="78" t="s">
+      <c r="F17" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="53" t="s">
@@ -1934,20 +1931,20 @@
       <c r="C18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="78" t="s">
+      <c r="F18" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J18" s="53" t="s">
@@ -1979,27 +1976,27 @@
       <c r="C19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="78" t="s">
+      <c r="F19" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J19" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="67" t="s">
-        <v>57</v>
+      <c r="K19" s="72" t="s">
+        <v>0</v>
       </c>
       <c r="Z19" s="44" t="s">
         <v>38</v>
@@ -2015,20 +2012,20 @@
       <c r="C20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="77"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="78" t="s">
+      <c r="F20" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="53" t="s">
@@ -2051,26 +2048,26 @@
       <c r="C21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="77"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="78" t="s">
+      <c r="F21" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="80" t="s">
+      <c r="K21" s="72" t="s">
         <v>0</v>
       </c>
       <c r="Z21" s="50" t="s">
@@ -2087,20 +2084,20 @@
       <c r="C22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="77"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="78" t="s">
+      <c r="F22" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="79" t="s">
         <v>0</v>
       </c>
       <c r="J22" s="53" t="s">

--- a/ABET/DocumentTracker_Assessment.xlsx
+++ b/ABET/DocumentTracker_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usarmywestpoint-my.sharepoint.com/personal/andrew_biaglow_westpoint_edu/Documents/Documents/GitHub/abiaglow.github.io/ABET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF76A67-B41C-4D4D-88DA-904CB49B0FE5}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{898D64DD-D4FE-4E10-919E-E9BF3F417B45}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{188796DA-674F-42F3-8244-EB71C3832B77}"/>
+    <workbookView xWindow="23904" yWindow="864" windowWidth="27684" windowHeight="14712" xr2:uid="{188796DA-674F-42F3-8244-EB71C3832B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="56">
   <si>
     <t>ü</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">   - Peers/CH459</t>
-  </si>
-  <si>
-    <t>10/25</t>
   </si>
   <si>
     <t>4/26</t>
@@ -658,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,6 +805,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,20 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,7 +1155,7 @@
   <dimension ref="C2:AB29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="170" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="L30" sqref="B2:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1177,15 +1171,15 @@
     <row r="3" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C3" s="13"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="75"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C4" s="14"/>
@@ -1211,15 +1205,15 @@
       <c r="K4" s="15">
         <v>2026</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="77"/>
+      <c r="O4" s="82"/>
       <c r="P4" s="43"/>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="77"/>
+      <c r="S4" s="82"/>
       <c r="T4" s="43"/>
       <c r="V4" s="55" t="s">
         <v>45</v>
@@ -1236,12 +1230,12 @@
       <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="78"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="59"/>
       <c r="K5" s="17"/>
       <c r="N5" s="42" t="s">
@@ -1285,27 +1279,27 @@
       <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="79" t="s">
+      <c r="F6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="44" t="s">
         <v>30</v>
@@ -1348,27 +1342,27 @@
       <c r="C7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="78"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="79" t="s">
+      <c r="F7" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" s="37" t="s">
         <v>31</v>
@@ -1411,27 +1405,27 @@
       <c r="C8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="78"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="79" t="s">
+      <c r="F8" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="53" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" s="44" t="s">
         <v>32</v>
@@ -1487,14 +1481,14 @@
       <c r="H9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="64" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" s="44" t="s">
         <v>33</v>
@@ -1598,12 +1592,12 @@
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="78"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="51"/>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
-      <c r="I11" s="78"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="59"/>
       <c r="K11" s="17"/>
       <c r="N11" s="44" t="s">
@@ -1636,27 +1630,27 @@
       <c r="C12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="78"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="79" t="s">
+      <c r="F12" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
@@ -1681,21 +1675,21 @@
       <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="78"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="79" t="s">
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="67" t="s">
-        <v>51</v>
+      <c r="K13" s="72" t="s">
+        <v>0</v>
       </c>
       <c r="N13" s="41"/>
       <c r="P13" s="41"/>
@@ -1725,7 +1719,7 @@
       <c r="C14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="78"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="54"/>
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
@@ -1739,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N14" s="44" t="s">
         <v>35</v>
@@ -1837,7 +1831,7 @@
       <c r="C16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="78"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
@@ -1886,27 +1880,27 @@
       <c r="C17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="79" t="s">
+      <c r="F17" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V17" s="44" t="s">
         <v>38</v>
@@ -1931,27 +1925,27 @@
       <c r="C18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="79" t="s">
+      <c r="F18" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J18" s="53" t="s">
         <v>0</v>
       </c>
       <c r="K18" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V18" s="48" t="s">
         <v>44</v>
@@ -1976,20 +1970,20 @@
       <c r="C19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="79" t="s">
+      <c r="F19" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J19" s="53" t="s">
@@ -2012,27 +2006,27 @@
       <c r="C20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="79" t="s">
+      <c r="F20" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="53" t="s">
         <v>0</v>
       </c>
       <c r="K20" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z20" s="36" t="s">
         <v>42</v>
@@ -2048,20 +2042,20 @@
       <c r="C21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="79" t="s">
+      <c r="F21" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J21" s="53" t="s">
@@ -2084,27 +2078,27 @@
       <c r="C22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="79" t="s">
+      <c r="F22" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="74" t="s">
         <v>0</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>0</v>
       </c>
       <c r="K22" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="3:28" x14ac:dyDescent="0.3">
@@ -2131,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="K23" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="66"/>
       <c r="K24" s="22"/>
     </row>
@@ -2151,108 +2145,108 @@
       <c r="C25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="81"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="83" t="s">
+      <c r="F25" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="77" t="s">
         <v>0</v>
       </c>
       <c r="J25" s="62" t="s">
         <v>0</v>
       </c>
       <c r="K25" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C26" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="81"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="83" t="s">
+      <c r="F26" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="77" t="s">
         <v>0</v>
       </c>
       <c r="J26" s="62" t="s">
         <v>0</v>
       </c>
       <c r="K26" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="81"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="83" t="s">
+      <c r="F27" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="77" t="s">
         <v>0</v>
       </c>
       <c r="J27" s="62" t="s">
         <v>0</v>
       </c>
       <c r="K27" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="81"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="83" t="s">
+      <c r="F28" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="77" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="62" t="s">
         <v>0</v>
       </c>
       <c r="K28" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="3:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2279,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ABET/DocumentTracker_Assessment.xlsx
+++ b/ABET/DocumentTracker_Assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usarmywestpoint-my.sharepoint.com/personal/andrew_biaglow_westpoint_edu/Documents/Documents/GitHub/abiaglow.github.io/ABET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{898D64DD-D4FE-4E10-919E-E9BF3F417B45}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F3190D-B1E5-404E-BBEC-66F78CEF038F}"/>
   <bookViews>
-    <workbookView xWindow="23904" yWindow="864" windowWidth="27684" windowHeight="14712" xr2:uid="{188796DA-674F-42F3-8244-EB71C3832B77}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{188796DA-674F-42F3-8244-EB71C3832B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -638,24 +638,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,9 +780,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -830,6 +814,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,7 +1149,7 @@
   <dimension ref="C2:AB29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="170" workbookViewId="0">
-      <selection activeCell="L30" sqref="B2:L30"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1171,15 +1165,15 @@
     <row r="3" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C3" s="13"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="80"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C4" s="14"/>
@@ -1205,15 +1199,15 @@
       <c r="K4" s="15">
         <v>2026</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="82"/>
+      <c r="O4" s="81"/>
       <c r="P4" s="43"/>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="82"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="43"/>
       <c r="V4" s="55" t="s">
         <v>45</v>
@@ -1230,12 +1224,12 @@
       <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="59"/>
       <c r="K5" s="17"/>
       <c r="N5" s="42" t="s">
@@ -1279,20 +1273,20 @@
       <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="74" t="s">
+      <c r="F6" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="53" t="s">
@@ -1342,20 +1336,20 @@
       <c r="C7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="74" t="s">
+      <c r="F7" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="53" t="s">
@@ -1405,20 +1399,20 @@
       <c r="C8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="74" t="s">
+      <c r="F8" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="53" t="s">
@@ -1481,7 +1475,7 @@
       <c r="H9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="64" t="s">
@@ -1592,12 +1586,12 @@
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="51"/>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
-      <c r="I11" s="73"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="59"/>
       <c r="K11" s="17"/>
       <c r="N11" s="44" t="s">
@@ -1630,20 +1624,20 @@
       <c r="C12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="74" t="s">
+      <c r="F12" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="53" t="s">
@@ -1675,20 +1669,20 @@
       <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="73"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="74" t="s">
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="71" t="s">
         <v>0</v>
       </c>
       <c r="N13" s="41"/>
@@ -1719,7 +1713,7 @@
       <c r="C14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="54"/>
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
@@ -1831,14 +1825,14 @@
       <c r="C16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="73"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
       <c r="J16" s="61"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="82"/>
       <c r="N16" s="48" t="s">
         <v>38</v>
       </c>
@@ -1880,26 +1874,26 @@
       <c r="C17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="74" t="s">
+      <c r="F17" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="67" t="s">
+      <c r="K17" s="83" t="s">
         <v>55</v>
       </c>
       <c r="V17" s="44" t="s">
@@ -1925,26 +1919,26 @@
       <c r="C18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="74" t="s">
+      <c r="F18" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J18" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="67" t="s">
+      <c r="K18" s="83" t="s">
         <v>55</v>
       </c>
       <c r="V18" s="48" t="s">
@@ -1970,26 +1964,26 @@
       <c r="C19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="73"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="74" t="s">
+      <c r="F19" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J19" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="84" t="s">
         <v>0</v>
       </c>
       <c r="Z19" s="44" t="s">
@@ -2006,26 +2000,26 @@
       <c r="C20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="73"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="74" t="s">
+      <c r="F20" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K20" s="67" t="s">
+      <c r="K20" s="83" t="s">
         <v>52</v>
       </c>
       <c r="Z20" s="36" t="s">
@@ -2042,26 +2036,26 @@
       <c r="C21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="73"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="74" t="s">
+      <c r="F21" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="84" t="s">
         <v>0</v>
       </c>
       <c r="Z21" s="50" t="s">
@@ -2078,26 +2072,26 @@
       <c r="C22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="73"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="74" t="s">
+      <c r="F22" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="73" t="s">
         <v>0</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="67" t="s">
+      <c r="K22" s="83" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2124,20 +2118,20 @@
       <c r="J23" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="69" t="s">
-        <v>51</v>
+      <c r="K23" s="85" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="76"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
       <c r="J24" s="66"/>
       <c r="K24" s="22"/>
     </row>
@@ -2145,7 +2139,7 @@
       <c r="C25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="76"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="30" t="s">
         <v>0</v>
       </c>
@@ -2158,13 +2152,13 @@
       <c r="H25" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="77" t="s">
+      <c r="I25" s="76" t="s">
         <v>0</v>
       </c>
       <c r="J25" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="K25" s="70" t="s">
+      <c r="K25" s="69" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2172,7 +2166,7 @@
       <c r="C26" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="76"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="29" t="s">
         <v>22</v>
       </c>
@@ -2185,13 +2179,13 @@
       <c r="H26" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="76" t="s">
         <v>0</v>
       </c>
       <c r="J26" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="69" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2199,7 +2193,7 @@
       <c r="C27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="76"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="30" t="s">
         <v>0</v>
       </c>
@@ -2212,13 +2206,13 @@
       <c r="H27" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="77" t="s">
+      <c r="I27" s="76" t="s">
         <v>0</v>
       </c>
       <c r="J27" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="K27" s="70" t="s">
+      <c r="K27" s="69" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2226,7 +2220,7 @@
       <c r="C28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="76"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="30" t="s">
         <v>0</v>
       </c>
@@ -2239,13 +2233,13 @@
       <c r="H28" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="77" t="s">
+      <c r="I28" s="76" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="70" t="s">
+      <c r="K28" s="69" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2272,7 +2266,7 @@
       <c r="J29" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="70" t="s">
         <v>51</v>
       </c>
     </row>

--- a/ABET/DocumentTracker_Assessment.xlsx
+++ b/ABET/DocumentTracker_Assessment.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usarmywestpoint-my.sharepoint.com/personal/andrew_biaglow_westpoint_edu/Documents/Documents/GitHub/abiaglow.github.io/ABET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F3190D-B1E5-404E-BBEC-66F78CEF038F}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{EFECDF9E-D228-4EC8-8531-E9F428053B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A339169-5F03-43D1-B0D1-973AE804511A}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{188796DA-674F-42F3-8244-EB71C3832B77}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{188796DA-674F-42F3-8244-EB71C3832B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="57">
   <si>
     <t>ü</t>
   </si>
@@ -216,6 +217,9 @@
   </si>
   <si>
     <t>9/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - SAChE/CH459</t>
   </si>
 </sst>
 </file>
@@ -302,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -638,11 +642,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,7 +722,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -789,17 +829,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -815,16 +844,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43280B16-16DF-424D-8A2C-F600D793918C}">
   <dimension ref="C2:AB29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="170" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="170" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1164,16 +1254,16 @@
     <row r="2" spans="3:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C3" s="13"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="77" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="79"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C4" s="14"/>
@@ -1190,276 +1280,276 @@
       <c r="H4" s="9">
         <v>2023</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="56">
         <v>2024</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="57">
         <v>2025</v>
       </c>
       <c r="K4" s="15">
         <v>2026</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="43"/>
-      <c r="R4" s="80" t="s">
+      <c r="O4" s="75"/>
+      <c r="P4" s="42"/>
+      <c r="R4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="81"/>
-      <c r="T4" s="43"/>
-      <c r="V4" s="55" t="s">
+      <c r="S4" s="75"/>
+      <c r="T4" s="42"/>
+      <c r="V4" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="56"/>
-      <c r="X4" s="43"/>
-      <c r="Z4" s="55" t="s">
+      <c r="W4" s="55"/>
+      <c r="X4" s="42"/>
+      <c r="Z4" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="43"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="42"/>
     </row>
     <row r="5" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="59"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="17"/>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="X5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="AA5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="35" t="s">
+      <c r="AB5" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="67" t="s">
+      <c r="F6" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="44" t="s">
+      <c r="P6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="S6" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="V6" s="45" t="s">
+      <c r="T6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="45" t="s">
+      <c r="W6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="45" t="s">
+      <c r="X6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="45" t="s">
+      <c r="AA6" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="47" t="s">
+      <c r="AB6" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="67" t="s">
+      <c r="F7" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="44" t="s">
+      <c r="R7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="S7" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="V7" s="36" t="s">
+      <c r="T7" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="36" t="s">
+      <c r="W7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="39" t="s">
+      <c r="X7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="Z7" s="36" t="s">
+      <c r="Z7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="AA7" s="36" t="s">
+      <c r="AA7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="39" t="s">
+      <c r="AB7" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="67" t="s">
+      <c r="F8" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="44" t="s">
+      <c r="O8" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="36" t="s">
+      <c r="P8" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="36" t="s">
+      <c r="S8" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="44" t="s">
+      <c r="W8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="X8" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="36" t="s">
+      <c r="X8" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AA8" s="36" t="s">
+      <c r="AA8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AB8" s="39" t="s">
+      <c r="AB8" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3"/>
@@ -1475,49 +1565,49 @@
       <c r="H9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="68" t="s">
+      <c r="I9" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="44" t="s">
+      <c r="O9" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="37" t="s">
+      <c r="P9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S9" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="V9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="W9" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="44" t="s">
+      <c r="X9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AA9" s="44" t="s">
+      <c r="AA9" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="AB9" s="47" t="s">
+      <c r="AB9" s="46" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1541,44 +1631,44 @@
       <c r="I10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="19"/>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="44" t="s">
+      <c r="O10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="37" t="s">
+      <c r="P10" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="37" t="s">
+      <c r="S10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="V10" s="44" t="s">
+      <c r="V10" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="W10" s="44" t="s">
+      <c r="W10" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="44" t="s">
+      <c r="X10" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AA10" s="44" t="s">
+      <c r="AA10" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AB10" s="47" t="s">
+      <c r="AB10" s="46" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1586,179 +1676,179 @@
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="59"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="17"/>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="44" t="s">
+      <c r="O11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="41"/>
-      <c r="Z11" s="44" t="s">
+      <c r="P11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="40"/>
+      <c r="Z11" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AA11" s="44" t="s">
+      <c r="AA11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AB11" s="47" t="s">
+      <c r="AB11" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="72"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="67" t="s">
+      <c r="F12" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="41"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="41"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="41"/>
-      <c r="Z12" s="44" t="s">
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="40"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="40"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="40"/>
+      <c r="Z12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AA12" s="44" t="s">
+      <c r="AA12" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AB12" s="47" t="s">
+      <c r="AB12" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="R13" s="44" t="s">
+      <c r="D13" s="76"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="R13" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="44" t="s">
+      <c r="S13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="T13" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="44" t="s">
+      <c r="T13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="44" t="s">
+      <c r="W13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="X13" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="41"/>
+      <c r="X13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="40"/>
     </row>
     <row r="14" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="67" t="s">
+      <c r="J14" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="44" t="s">
+      <c r="N14" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="44" t="s">
+      <c r="O14" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="44" t="s">
+      <c r="P14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="44" t="s">
+      <c r="S14" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="T14" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14" s="44" t="s">
+      <c r="T14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="44" t="s">
+      <c r="W14" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="X14" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="41"/>
+      <c r="X14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="40"/>
     </row>
     <row r="15" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C15" s="18" t="s">
@@ -1780,44 +1870,46 @@
       <c r="I15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20"/>
-      <c r="N15" s="44" t="s">
+      <c r="J15" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="44" t="s">
+      <c r="O15" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="37" t="s">
+      <c r="P15" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="S15" s="37" t="s">
+      <c r="S15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="40" t="s">
+      <c r="T15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="V15" s="44" t="s">
+      <c r="V15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="44" t="s">
+      <c r="W15" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="X15" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="44" t="s">
+      <c r="X15" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="AA15" s="44" t="s">
+      <c r="AA15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="47" t="s">
+      <c r="AB15" s="46" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1825,278 +1917,278 @@
       <c r="C16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="82"/>
-      <c r="N16" s="48" t="s">
+      <c r="D16" s="76"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="79"/>
+      <c r="N16" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="48" t="s">
+      <c r="O16" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="48" t="s">
+      <c r="P16" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="48" t="s">
+      <c r="S16" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="V16" s="44" t="s">
+      <c r="T16" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="W16" s="44" t="s">
+      <c r="W16" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="X16" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="44" t="s">
+      <c r="X16" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AA16" s="44" t="s">
+      <c r="AA16" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AB16" s="47" t="s">
+      <c r="AB16" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="72"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="83" t="s">
+      <c r="F17" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="44" t="s">
+      <c r="V17" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W17" s="44" t="s">
+      <c r="W17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="X17" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="36" t="s">
+      <c r="X17" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="36" t="s">
+      <c r="AA17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AB17" s="39" t="s">
+      <c r="AB17" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="72"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="83" t="s">
+      <c r="F18" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="V18" s="48" t="s">
+      <c r="V18" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="W18" s="48" t="s">
+      <c r="W18" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="44" t="s">
+      <c r="X18" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AA18" s="44" t="s">
+      <c r="AA18" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AB18" s="47" t="s">
+      <c r="AB18" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="44" t="s">
+      <c r="F19" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AA19" s="44" t="s">
+      <c r="AA19" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AB19" s="47" t="s">
+      <c r="AB19" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="72"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="83" t="s">
+      <c r="F20" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="Z20" s="36" t="s">
+      <c r="Z20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AA20" s="36" t="s">
+      <c r="AA20" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AB20" s="39" t="s">
+      <c r="AB20" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="72"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="50" t="s">
+      <c r="F21" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="AA21" s="50" t="s">
+      <c r="AA21" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AB21" s="39" t="s">
+      <c r="AB21" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="72"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="83" t="s">
+      <c r="F22" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="80" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="3"/>
@@ -2115,158 +2207,158 @@
       <c r="I23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="85" t="s">
+      <c r="J23" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="82" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="22"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="K25" s="69" t="s">
+      <c r="D25" s="83"/>
+      <c r="E25" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="68" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="29" t="s">
+      <c r="D26" s="83"/>
+      <c r="E26" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="69" t="s">
+      <c r="F26" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="68" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="69" t="s">
+      <c r="D27" s="83"/>
+      <c r="E27" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="68" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="75"/>
-      <c r="E28" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="69" t="s">
+      <c r="D28" s="83"/>
+      <c r="E28" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="68" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="3:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="31" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="70" t="s">
+      <c r="F29" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="69" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2280,4 +2372,1170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1630D0AC-2110-454D-A79F-6A4AFC573624}">
+  <dimension ref="C2:AB30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="170" workbookViewId="0">
+      <selection activeCell="L31" sqref="B2:L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="2.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="12" max="12" width="2.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C3" s="13"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C4" s="14"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10">
+        <v>2020</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2022</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2023</v>
+      </c>
+      <c r="I4" s="56">
+        <v>2024</v>
+      </c>
+      <c r="J4" s="57">
+        <v>2025</v>
+      </c>
+      <c r="K4" s="15">
+        <v>2026</v>
+      </c>
+      <c r="N4" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="75"/>
+      <c r="P4" s="42"/>
+      <c r="R4" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="75"/>
+      <c r="T4" s="42"/>
+      <c r="V4" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="55"/>
+      <c r="X4" s="42"/>
+      <c r="Z4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="42"/>
+    </row>
+    <row r="5" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="17"/>
+      <c r="N5" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="N10" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA10" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C11" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="17"/>
+      <c r="N11" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="40"/>
+      <c r="Z11" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C12" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="40"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="40"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="40"/>
+      <c r="Z12" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA12" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB12" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C13" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="R13" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="40"/>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C14" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="X14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="40"/>
+    </row>
+    <row r="15" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="83"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="N15" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="X15" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB15" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="83"/>
+      <c r="E16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA16" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB16" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="83"/>
+      <c r="E17" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="X17" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB17" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="W18" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="X18" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA18" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB18" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="83"/>
+      <c r="E19" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB19" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="83"/>
+      <c r="E20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA20" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB20" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z21" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB21" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C22" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C24" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C27" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C28" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C29" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="100"/>
+      <c r="E30" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="R4:S4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>